--- a/用例数据/股转/定向可转债/协议交易/测试结果.xlsx
+++ b/用例数据/股转/定向可转债/协议交易/测试结果.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\股转\协议交易\E5数据\协议交易\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\股转\定向可转债\协议交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="openorder" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="683">
   <si>
     <t>EXCHID</t>
   </si>
@@ -2014,76 +2014,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-763.175</t>
-  </si>
-  <si>
-    <t>9.65098617</t>
-  </si>
-  <si>
-    <t>9.43564938</t>
-  </si>
-  <si>
-    <t>30051492</t>
-  </si>
-  <si>
-    <t>20221007203248</t>
-  </si>
-  <si>
-    <t>20221007000000</t>
-  </si>
-  <si>
-    <t>-31537.000</t>
-  </si>
-  <si>
-    <t>999278152.590</t>
-  </si>
-  <si>
-    <t>20221007111758</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>000006907401</t>
-  </si>
-  <si>
-    <t>20221010000000</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
-    <t>30051494</t>
-  </si>
-  <si>
-    <t>3807.420</t>
-  </si>
-  <si>
-    <t>999247557.110</t>
-  </si>
-  <si>
-    <t>000006907400</t>
-  </si>
-  <si>
-    <t>30051514</t>
-  </si>
-  <si>
-    <t>20221007203249</t>
-  </si>
-  <si>
-    <t>999255075.190</t>
-  </si>
-  <si>
-    <t>000006907399</t>
-  </si>
-  <si>
-    <t>30051516</t>
-  </si>
-  <si>
-    <t>999224479.710</t>
-  </si>
-  <si>
-    <t>000006907398</t>
+    <t>30250040</t>
+  </si>
+  <si>
+    <t>20221129213635</t>
+  </si>
+  <si>
+    <t>20221129000000</t>
+  </si>
+  <si>
+    <t>-31543.300</t>
+  </si>
+  <si>
+    <t>1000155417.290</t>
+  </si>
+  <si>
+    <t>3.150</t>
+  </si>
+  <si>
+    <t>20221129111758</t>
+  </si>
+  <si>
+    <t>000007055429</t>
+  </si>
+  <si>
+    <t>20221130000000</t>
+  </si>
+  <si>
+    <t>30250042</t>
+  </si>
+  <si>
+    <t>1010971229.740</t>
+  </si>
+  <si>
+    <t>000007055427</t>
+  </si>
+  <si>
+    <t>30250051</t>
+  </si>
+  <si>
+    <t>3806.660</t>
+  </si>
+  <si>
+    <t>1000124820.700</t>
+  </si>
+  <si>
+    <t>0.380</t>
+  </si>
+  <si>
+    <t>000007055428</t>
+  </si>
+  <si>
+    <t>30250053</t>
+  </si>
+  <si>
+    <t>1010940633.150</t>
+  </si>
+  <si>
+    <t>000007055426</t>
+  </si>
+  <si>
+    <t>-763.935</t>
+  </si>
+  <si>
+    <t>9.65224617</t>
+  </si>
+  <si>
+    <t>9.43669938</t>
   </si>
 </sst>
 </file>
@@ -2431,135 +2434,135 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="11" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="18" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="13" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="16" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="21" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="95" max="96" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="20" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="18" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>657</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="2" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>607</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>612</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>615</v>
       </c>
@@ -3713,7 +3716,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>619</v>
       </c>
@@ -3984,155 +3987,155 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="14" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="21" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="13" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="23" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="99" max="100" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="103" max="104" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="99" max="100" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="103" max="104" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="15" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="18" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4578,7 +4581,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
@@ -5408,147 +5411,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="19" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="18" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="13" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="15" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="13" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="19" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="23" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="23" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="2.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>271</v>
       </c>
@@ -5964,9 +5967,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>383</v>
@@ -5975,10 +5978,10 @@
         <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>86</v>
@@ -6029,16 +6032,16 @@
         <v>387</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>388</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>112</v>
@@ -6047,13 +6050,13 @@
         <v>389</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>95</v>
+        <v>665</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>95</v>
+        <v>665</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>95</v>
+        <v>665</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>95</v>
@@ -6173,31 +6176,31 @@
         <v>257</v>
       </c>
       <c r="BZ2" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>261</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>102</v>
@@ -6209,7 +6212,7 @@
         <v>401</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>91</v>
@@ -6254,10 +6257,10 @@
         <v>389</v>
       </c>
       <c r="DP2" s="1" t="s">
-        <v>95</v>
+        <v>665</v>
       </c>
       <c r="DQ2" s="1" t="s">
-        <v>95</v>
+        <v>665</v>
       </c>
       <c r="DR2" s="1" t="s">
         <v>95</v>
@@ -6302,45 +6305,45 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>266</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>618</v>
+        <v>105</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>611</v>
@@ -6358,40 +6361,40 @@
         <v>99</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="X3" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>672</v>
-      </c>
       <c r="Z3" s="1" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>91</v>
+        <v>644</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>95</v>
+        <v>665</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>95</v>
+        <v>665</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>95</v>
+        <v>665</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>95</v>
@@ -6409,13 +6412,13 @@
         <v>95</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>95</v>
@@ -6427,10 +6430,10 @@
         <v>98</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>393</v>
@@ -6442,7 +6445,7 @@
         <v>394</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>100</v>
@@ -6469,10 +6472,10 @@
         <v>91</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>95</v>
@@ -6511,7 +6514,7 @@
         <v>257</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>95</v>
@@ -6529,25 +6532,25 @@
         <v>91</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>261</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="CR3" s="1" t="s">
         <v>401</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>91</v>
@@ -6580,22 +6583,22 @@
         <v>95</v>
       </c>
       <c r="DL3" s="1" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="DM3" s="1" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="DO3" s="1" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="DP3" s="1" t="s">
-        <v>95</v>
+        <v>665</v>
       </c>
       <c r="DQ3" s="1" t="s">
-        <v>95</v>
+        <v>665</v>
       </c>
       <c r="DR3" s="1" t="s">
         <v>95</v>
@@ -6604,22 +6607,22 @@
         <v>95</v>
       </c>
       <c r="DT3" s="1" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="DU3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="DV3" s="1" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="DW3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="DX3" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="DY3" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="EA3" s="1" t="s">
         <v>404</v>
@@ -6640,45 +6643,45 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>266</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>105</v>
+        <v>618</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>611</v>
@@ -6696,40 +6699,40 @@
         <v>99</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>644</v>
+        <v>91</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>95</v>
+        <v>675</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>95</v>
+        <v>675</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>95</v>
+        <v>675</v>
       </c>
       <c r="AG4" s="1" t="s">
         <v>95</v>
@@ -6747,13 +6750,13 @@
         <v>95</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>95</v>
@@ -6765,10 +6768,10 @@
         <v>98</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>393</v>
@@ -6780,7 +6783,7 @@
         <v>394</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>100</v>
@@ -6807,10 +6810,10 @@
         <v>91</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>95</v>
@@ -6849,7 +6852,7 @@
         <v>257</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>95</v>
@@ -6867,25 +6870,25 @@
         <v>91</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>261</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="CR4" s="1" t="s">
         <v>401</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>91</v>
@@ -6918,22 +6921,22 @@
         <v>95</v>
       </c>
       <c r="DL4" s="1" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="DM4" s="1" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="DN4" s="1" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="DO4" s="1" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="DP4" s="1" t="s">
-        <v>95</v>
+        <v>675</v>
       </c>
       <c r="DQ4" s="1" t="s">
-        <v>95</v>
+        <v>675</v>
       </c>
       <c r="DR4" s="1" t="s">
         <v>95</v>
@@ -6942,22 +6945,22 @@
         <v>95</v>
       </c>
       <c r="DT4" s="1" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="DU4" s="1" t="s">
         <v>95</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="DW4" s="1" t="s">
         <v>95</v>
       </c>
       <c r="DX4" s="1" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="DY4" s="1" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="EA4" s="1" t="s">
         <v>404</v>
@@ -6978,9 +6981,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>406</v>
@@ -6989,10 +6992,10 @@
         <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>86</v>
@@ -7043,16 +7046,16 @@
         <v>408</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>94</v>
@@ -7061,13 +7064,13 @@
         <v>410</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>95</v>
+        <v>675</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>95</v>
+        <v>675</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>95</v>
+        <v>675</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>95</v>
@@ -7187,7 +7190,7 @@
         <v>257</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>95</v>
@@ -7205,13 +7208,13 @@
         <v>91</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>261</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>102</v>
@@ -7223,7 +7226,7 @@
         <v>401</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>91</v>
@@ -7268,10 +7271,10 @@
         <v>410</v>
       </c>
       <c r="DP5" s="1" t="s">
-        <v>95</v>
+        <v>675</v>
       </c>
       <c r="DQ5" s="1" t="s">
-        <v>95</v>
+        <v>675</v>
       </c>
       <c r="DR5" s="1" t="s">
         <v>95</v>
@@ -7320,6 +7323,7 @@
   <autoFilter ref="A1:EI1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7327,99 +7331,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="19" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="25" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="30" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7679,7 +7683,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -7717,7 +7721,7 @@
         <v>113</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>94</v>
@@ -7885,7 +7889,7 @@
         <v>113</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="BR2" s="1" t="s">
         <v>104</v>
@@ -7939,7 +7943,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -7971,7 +7975,7 @@
         <v>644</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>643</v>
@@ -8139,7 +8143,7 @@
         <v>91</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>643</v>
@@ -8199,7 +8203,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -8231,7 +8235,7 @@
         <v>112</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>111</v>
@@ -8399,7 +8403,7 @@
         <v>91</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>111</v>
@@ -8459,8 +8463,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8475,58 +8479,58 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>273</v>
       </c>
@@ -8669,7 +8673,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>627</v>
       </c>
@@ -8791,7 +8795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>627</v>
       </c>
@@ -8913,7 +8917,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>627</v>
       </c>
@@ -9035,7 +9039,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>627</v>
       </c>
@@ -9171,149 +9175,149 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="29" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="7" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="18" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="9" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="18" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="13" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="23" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="23" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="18" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="19" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="20" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9735,7 +9739,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
@@ -10124,7 +10128,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
@@ -10513,7 +10517,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -10902,7 +10906,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -11306,42 +11310,42 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>274</v>
       </c>
@@ -11436,7 +11440,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>651</v>
       </c>
@@ -11486,7 +11490,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>651</v>
       </c>
@@ -11536,7 +11540,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>651</v>
       </c>
@@ -11592,7 +11596,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>651</v>
       </c>

--- a/用例数据/股转/定向可转债/协议交易/测试结果.xlsx
+++ b/用例数据/股转/定向可转债/协议交易/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="openorder" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="686">
   <si>
     <t>EXCHID</t>
   </si>
@@ -2087,6 +2087,18 @@
   </si>
   <si>
     <t>9.43669938</t>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2434,135 +2446,135 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.25" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.25" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.75" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="11" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="18" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.875" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="13" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="16" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10.625" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="21" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="95" max="96" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="23.625" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="20" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="13.125" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="18" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>657</v>
       </c>
@@ -2945,7 +2957,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="2" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>607</v>
       </c>
@@ -3202,7 +3214,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>612</v>
       </c>
@@ -3459,7 +3471,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>615</v>
       </c>
@@ -3716,7 +3728,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:127" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>619</v>
       </c>
@@ -3987,155 +3999,155 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.75" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="14" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.5" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="21" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="13" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="23.625" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="23" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="99" max="100" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="104" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="99" max="100" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="103" max="104" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="19.625" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="15" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="21.875" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="18" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4581,7 +4593,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -4991,7 +5003,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
@@ -5412,146 +5424,146 @@
   <dimension ref="A1:EI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.25" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.375" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="19" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="18.75" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="18" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.875" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="13" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.25" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="15" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="17.875" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="13" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.375" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="19" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.375" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="23" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="19.5" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="23" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>271</v>
       </c>
@@ -5967,7 +5979,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>660</v>
       </c>
@@ -5984,7 +5996,7 @@
         <v>661</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>683</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>620</v>
@@ -6305,7 +6317,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>669</v>
       </c>
@@ -6322,7 +6334,7 @@
         <v>661</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>86</v>
+        <v>683</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>613</v>
@@ -6643,7 +6655,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>672</v>
       </c>
@@ -6660,7 +6672,7 @@
         <v>661</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
+        <v>683</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>616</v>
@@ -6981,7 +6993,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>677</v>
       </c>
@@ -6998,7 +7010,7 @@
         <v>661</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>683</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>608</v>
@@ -7331,99 +7343,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.5" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="19" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.75" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="25" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="22.125" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="30" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7683,9 +7695,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>684</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>108</v>
@@ -7943,9 +7955,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>684</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>108</v>
@@ -8203,9 +8215,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>684</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>87</v>
@@ -8463,8 +8475,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8479,58 +8491,58 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>273</v>
       </c>
@@ -8673,7 +8685,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>627</v>
       </c>
@@ -8795,7 +8807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>627</v>
       </c>
@@ -8917,7 +8929,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>627</v>
       </c>
@@ -9039,7 +9051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>627</v>
       </c>
@@ -9175,149 +9187,149 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="29" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="7" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.5" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="18" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.5" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="9" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="78" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="18.75" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="18" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14.25" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="13" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="13.375" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="23" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="19.5" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="23" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.375" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="18" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.5" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="19" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="16.875" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="20" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9739,7 +9751,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>108</v>
       </c>
@@ -10128,7 +10140,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
@@ -10517,7 +10529,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
@@ -10906,7 +10918,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:140" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>87</v>
       </c>
@@ -11306,46 +11318,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>274</v>
       </c>
@@ -11440,12 +11452,12 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>651</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>685</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>99</v>
@@ -11490,12 +11502,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>651</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>685</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>99</v>
@@ -11540,12 +11552,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>651</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>685</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>99</v>
@@ -11596,12 +11608,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>651</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>685</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>99</v>

--- a/用例数据/股转/定向可转债/协议交易/测试结果.xlsx
+++ b/用例数据/股转/定向可转债/协议交易/测试结果.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\股转\定向可转债\协议交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA98118-18A1-4EE9-A363-3AE06F9B767C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="openorder" sheetId="10" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="687">
   <si>
     <t>EXCHID</t>
   </si>
@@ -2098,13 +2099,17 @@
   </si>
   <si>
     <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2439,7 +2444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DW5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3992,7 +3997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:ER3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5420,11 +5425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:EI5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6711,7 +6716,7 @@
         <v>99</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>407</v>
+        <v>686</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>94</v>
@@ -7049,7 +7054,7 @@
         <v>99</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>407</v>
+        <v>686</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>94</v>
@@ -7332,7 +7337,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:EI1"/>
+  <autoFilter ref="A1:EI1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7340,7 +7345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8484,7 +8489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
@@ -9180,7 +9185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:EJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11308,18 +11313,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:EJ1"/>
+  <autoFilter ref="A1:EJ1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11659,7 +11664,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE1"/>
+  <autoFilter ref="A1:AE1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
